--- a/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
+++ b/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\trans\SoCDTtiNTY\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="110" windowWidth="19420" windowHeight="10050"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="21075" windowHeight="10050"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Data from AVL" sheetId="3" r:id="rId2"/>
-    <sheet name="SoCDTtiNTY" sheetId="2" r:id="rId3"/>
+    <sheet name="SoCDTtiNTY-psgr" sheetId="2" r:id="rId2"/>
+    <sheet name="SoCDTtiNTY-frgt" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>SoCDTtiNTY Share of Cargo Dist Transported that is New This Year</t>
   </si>
@@ -72,31 +77,34 @@
     <t>motorbikes</t>
   </si>
   <si>
-    <t>passenger</t>
-  </si>
-  <si>
-    <t>freight</t>
-  </si>
-  <si>
-    <t>Vehicle</t>
-  </si>
-  <si>
-    <t>Lifetime (yr)</t>
-  </si>
-  <si>
-    <t>One over vehicle lifetime (1/AVLo) is often a good value at</t>
-  </si>
-  <si>
-    <t>which to start calibration.</t>
+    <t>Share that is New (dimensionless)</t>
+  </si>
+  <si>
+    <t>battery electric vehicle</t>
+  </si>
+  <si>
+    <t>natural gas vehicle</t>
+  </si>
+  <si>
+    <t>gasoline vehicle</t>
+  </si>
+  <si>
+    <t>diesel vehicle</t>
+  </si>
+  <si>
+    <t>plugin hybrid vehicle</t>
+  </si>
+  <si>
+    <t>LPG vehicle</t>
+  </si>
+  <si>
+    <t>hydrogen vehicle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -134,16 +142,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -153,6 +163,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -201,7 +214,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -236,7 +249,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -445,18 +458,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -464,59 +477,49 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -526,70 +529,201 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.08984375" customWidth="1"/>
+    <col min="1" max="1" width="19.1328125" customWidth="1"/>
+    <col min="2" max="8" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="C2">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D2">
+        <v>7.8E-2</v>
+      </c>
+      <c r="E2">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="F2">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="G2">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="H2">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="C3">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="D3">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="E3">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="F3">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="G3">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="H3">
+        <v>4.2700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="C4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="D4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="E4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="F4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="G4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="H4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="C6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="D6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="E6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="F6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="G6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="H6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3">
-        <v>17</v>
+      <c r="B7">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="C7">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="D7">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E7">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="F7">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="G7">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="H7">
+        <v>5.8700000000000002E-2</v>
       </c>
     </row>
   </sheetData>
@@ -602,101 +736,201 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="19.1328125" customWidth="1"/>
+    <col min="2" max="8" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6">
-        <f>1/'Data from AVL'!$B2</f>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="C2" s="6">
-        <f>1/'Data from AVL'!$B2</f>
-        <v>7.6923076923076927E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="C2">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D2">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="E2">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F2">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G2">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H2">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="6">
-        <f>1/'Data from AVL'!$B3</f>
-        <v>3.5714285714285712E-2</v>
-      </c>
-      <c r="C3" s="6">
-        <f>1/'Data from AVL'!$B3</f>
-        <v>3.5714285714285712E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="C3">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="D3">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="E3">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="F3">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="G3">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="H3">
+        <v>3.5499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="6">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="C4" s="6">
-        <v>5.5500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="C4">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D4">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E4">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F4">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G4">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H4">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="6">
-        <f>1/'Data from AVL'!$B5</f>
-        <v>2.9411764705882353E-2</v>
-      </c>
-      <c r="C5" s="6">
-        <f>1/'Data from AVL'!B5</f>
-        <v>2.9411764705882353E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="6">
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="C6" s="6">
-        <f>1/'Data from AVL'!$B6</f>
-        <v>3.0303030303030304E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="C6">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="D6">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="E6">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="F6">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="G6">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="H6">
+        <v>3.0300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="6">
-        <f>1/'Data from AVL'!$B7</f>
-        <v>5.8823529411764705E-2</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
+++ b/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
@@ -1,22 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\trans\SoCDTtiNTY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\SoCDTtiNTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7068EE-DE0D-4380-BEB0-F0EE695126AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="21075" windowHeight="10050"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="SoCDTtiNTY-psgr" sheetId="2" r:id="rId2"/>
     <sheet name="SoCDTtiNTY-frgt" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -104,7 +116,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -247,6 +259,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -282,6 +311,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -457,19 +503,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -477,47 +523,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -528,7 +574,211 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.08984375" customWidth="1"/>
+    <col min="2" max="8" width="14.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="C2">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="D2">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="E2">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="F2">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="G2">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="H2">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>0.09</v>
+      </c>
+      <c r="C3">
+        <v>0.09</v>
+      </c>
+      <c r="D3">
+        <v>0.09</v>
+      </c>
+      <c r="E3">
+        <v>0.09</v>
+      </c>
+      <c r="F3">
+        <v>0.09</v>
+      </c>
+      <c r="G3">
+        <v>0.09</v>
+      </c>
+      <c r="H3">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="C4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="D4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="E4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="F4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="G4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="H4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="C6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="D6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="E6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="F6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="G6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="H6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="C7">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="D7">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E7">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="F7">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="G7">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="H7">
+        <v>5.8700000000000002E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -538,13 +788,13 @@
       <selection activeCell="B2" sqref="B2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.1328125" customWidth="1"/>
-    <col min="2" max="8" width="14.3984375" customWidth="1"/>
+    <col min="1" max="1" width="19.08984375" customWidth="1"/>
+    <col min="2" max="8" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -570,85 +820,85 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
-        <v>7.5999999999999998E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="C2">
-        <v>7.5999999999999998E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D2">
-        <v>7.8E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="E2">
-        <v>7.5999999999999998E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="F2">
-        <v>7.5999999999999998E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="G2">
-        <v>7.5999999999999998E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="H2">
-        <v>7.5999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3">
-        <v>4.2700000000000002E-2</v>
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="C3">
-        <v>4.2700000000000002E-2</v>
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="D3">
-        <v>4.2700000000000002E-2</v>
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="E3">
-        <v>4.2700000000000002E-2</v>
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="F3">
-        <v>4.2700000000000002E-2</v>
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="G3">
-        <v>4.2700000000000002E-2</v>
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="H3">
-        <v>4.2700000000000002E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+        <v>3.5499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4">
-        <v>4.1599999999999998E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="C4">
-        <v>4.1599999999999998E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="D4">
-        <v>4.1599999999999998E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="E4">
-        <v>4.1599999999999998E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F4">
-        <v>4.1599999999999998E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="G4">
-        <v>4.1599999999999998E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="H4">
-        <v>4.1599999999999998E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -674,215 +924,11 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6">
-        <v>2.9819999999999999E-2</v>
-      </c>
-      <c r="C6">
-        <v>2.9819999999999999E-2</v>
-      </c>
-      <c r="D6">
-        <v>2.9819999999999999E-2</v>
-      </c>
-      <c r="E6">
-        <v>2.9819999999999999E-2</v>
-      </c>
-      <c r="F6">
-        <v>2.9819999999999999E-2</v>
-      </c>
-      <c r="G6">
-        <v>2.9819999999999999E-2</v>
-      </c>
-      <c r="H6">
-        <v>2.9819999999999999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>5.8700000000000002E-2</v>
-      </c>
-      <c r="C7">
-        <v>5.8700000000000002E-2</v>
-      </c>
-      <c r="D7">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="E7">
-        <v>5.8700000000000002E-2</v>
-      </c>
-      <c r="F7">
-        <v>5.8700000000000002E-2</v>
-      </c>
-      <c r="G7">
-        <v>5.8700000000000002E-2</v>
-      </c>
-      <c r="H7">
-        <v>5.8700000000000002E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="19.1328125" customWidth="1"/>
-    <col min="2" max="8" width="14.3984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="C2">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="D2">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="E2">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="F2">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="G2">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="H2">
-        <v>7.1999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>3.5499999999999997E-2</v>
-      </c>
-      <c r="C3">
-        <v>3.5499999999999997E-2</v>
-      </c>
-      <c r="D3">
-        <v>3.5499999999999997E-2</v>
-      </c>
-      <c r="E3">
-        <v>3.5499999999999997E-2</v>
-      </c>
-      <c r="F3">
-        <v>3.5499999999999997E-2</v>
-      </c>
-      <c r="G3">
-        <v>3.5499999999999997E-2</v>
-      </c>
-      <c r="H3">
-        <v>3.5499999999999997E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="C4">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="D4">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="E4">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="F4">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="G4">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="H4">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="C5">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="D5">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="E5">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="F5">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="G5">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="H5">
-        <v>2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
         <v>3.0300000000000001E-2</v>
       </c>
       <c r="C6">
@@ -904,7 +950,7 @@
         <v>3.0300000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>

--- a/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
+++ b/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\SoCDTtiNTY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Canada\canada-eps\InputData\trans\SoCDTtiNTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7068EE-DE0D-4380-BEB0-F0EE695126AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE217C7-FBDA-46AE-948D-EF2A6BCFCE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -506,16 +506,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -523,47 +523,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -584,13 +584,13 @@
       <selection activeCell="B2" sqref="B2:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.08984375" customWidth="1"/>
-    <col min="2" max="8" width="14.36328125" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="8" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -616,7 +616,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -642,7 +642,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -668,7 +668,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -694,7 +694,7 @@
         <v>4.1599999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -720,7 +720,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -746,7 +746,7 @@
         <v>2.9819999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -784,17 +784,17 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.08984375" customWidth="1"/>
-    <col min="2" max="8" width="14.36328125" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="8" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -820,7 +820,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -846,7 +846,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -872,7 +872,7 @@
         <v>3.5499999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -898,7 +898,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -924,7 +924,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -950,30 +950,37 @@
         <v>3.0300000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <f>B3</f>
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <f t="shared" ref="C7:H7" si="0">C3</f>
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.5499999999999997E-2</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
+++ b/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Canada\canada-eps\InputData\trans\SoCDTtiNTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE217C7-FBDA-46AE-948D-EF2A6BCFCE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B8972E-B0E9-41F8-B66E-3666851E2023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="750" yWindow="1440" windowWidth="16605" windowHeight="14325" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="SoCDTtiNTY-psgr" sheetId="2" r:id="rId2"/>
-    <sheet name="SoCDTtiNTY-frgt" sheetId="4" r:id="rId3"/>
+    <sheet name="AVL" sheetId="5" r:id="rId2"/>
+    <sheet name="SoCDTtiNTY-psgr" sheetId="2" r:id="rId3"/>
+    <sheet name="SoCDTtiNTY-frgt" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>SoCDTtiNTY Share of Cargo Dist Transported that is New This Year</t>
   </si>
@@ -111,6 +112,15 @@
   </si>
   <si>
     <t>hydrogen vehicle</t>
+  </si>
+  <si>
+    <t>Vehicle Lifetime (years)</t>
+  </si>
+  <si>
+    <t>Passenger</t>
+  </si>
+  <si>
+    <t>Freight</t>
   </si>
 </sst>
 </file>
@@ -574,6 +584,98 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69FF35F2-EB7C-4DEE-8D23-3BEE6DC1B0D1}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -581,7 +683,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,25 +723,32 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>8.5999999999999993E-2</v>
+        <f>1/AVL!$B2</f>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="C2">
-        <v>8.5999999999999993E-2</v>
+        <f>1/AVL!$B2</f>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="D2">
-        <v>8.5999999999999993E-2</v>
+        <f>1/AVL!$B2</f>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="E2">
-        <v>8.5999999999999993E-2</v>
+        <f>1/AVL!$B2</f>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="F2">
-        <v>8.5999999999999993E-2</v>
+        <f>1/AVL!$B2</f>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="G2">
-        <v>8.5999999999999993E-2</v>
+        <f>1/AVL!$B2</f>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="H2">
-        <v>8.5999999999999993E-2</v>
+        <f>1/AVL!$B2</f>
+        <v>7.6923076923076927E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -647,25 +756,32 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>0.09</v>
+        <f>1/AVL!$B3</f>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="C3">
-        <v>0.09</v>
+        <f>1/AVL!$B3</f>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="D3">
-        <v>0.09</v>
+        <f>1/AVL!$B3</f>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="E3">
-        <v>0.09</v>
+        <f>1/AVL!$B3</f>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="F3">
-        <v>0.09</v>
+        <f>1/AVL!$B3</f>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="G3">
-        <v>0.09</v>
+        <f>1/AVL!$B3</f>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="H3">
-        <v>0.09</v>
+        <f>1/AVL!$B3</f>
+        <v>4.3478260869565216E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -673,25 +789,32 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>4.1599999999999998E-2</v>
+        <f>1/AVL!$B4</f>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C4">
-        <v>4.1599999999999998E-2</v>
+        <f>1/AVL!$B4</f>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D4">
-        <v>4.1599999999999998E-2</v>
+        <f>1/AVL!$B4</f>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="E4">
-        <v>4.1599999999999998E-2</v>
+        <f>1/AVL!$B4</f>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="F4">
-        <v>4.1599999999999998E-2</v>
+        <f>1/AVL!$B4</f>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="G4">
-        <v>4.1599999999999998E-2</v>
+        <f>1/AVL!$B4</f>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="H4">
-        <v>4.1599999999999998E-2</v>
+        <f>1/AVL!$B4</f>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -699,25 +822,32 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>2.9000000000000001E-2</v>
+        <f>1/AVL!$B5</f>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="C5">
-        <v>2.9000000000000001E-2</v>
+        <f>1/AVL!$B5</f>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="D5">
-        <v>2.9000000000000001E-2</v>
+        <f>1/AVL!$B5</f>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="E5">
-        <v>2.9000000000000001E-2</v>
+        <f>1/AVL!$B5</f>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="F5">
-        <v>2.9000000000000001E-2</v>
+        <f>1/AVL!$B5</f>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="G5">
-        <v>2.9000000000000001E-2</v>
+        <f>1/AVL!$B5</f>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="H5">
-        <v>2.9000000000000001E-2</v>
+        <f>1/AVL!$B5</f>
+        <v>2.9411764705882353E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -725,25 +855,32 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>2.9819999999999999E-2</v>
+        <f>1/AVL!$B6</f>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="C6">
-        <v>2.9819999999999999E-2</v>
+        <f>1/AVL!$B6</f>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="D6">
-        <v>2.9819999999999999E-2</v>
+        <f>1/AVL!$B6</f>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="E6">
-        <v>2.9819999999999999E-2</v>
+        <f>1/AVL!$B6</f>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="F6">
-        <v>2.9819999999999999E-2</v>
+        <f>1/AVL!$B6</f>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="G6">
-        <v>2.9819999999999999E-2</v>
+        <f>1/AVL!$B6</f>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="H6">
-        <v>2.9819999999999999E-2</v>
+        <f>1/AVL!$B6</f>
+        <v>3.0303030303030304E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -751,25 +888,32 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>5.8700000000000002E-2</v>
+        <f>1/AVL!$B7</f>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="C7">
-        <v>5.8700000000000002E-2</v>
+        <f>1/AVL!$B7</f>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="D7">
-        <v>5.8000000000000003E-2</v>
+        <f>1/AVL!$B7</f>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="E7">
-        <v>5.8700000000000002E-2</v>
+        <f>1/AVL!$B7</f>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="F7">
-        <v>5.8700000000000002E-2</v>
+        <f>1/AVL!$B7</f>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="G7">
-        <v>5.8700000000000002E-2</v>
+        <f>1/AVL!$B7</f>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="H7">
-        <v>5.8700000000000002E-2</v>
+        <f>1/AVL!$B7</f>
+        <v>5.8823529411764705E-2</v>
       </c>
     </row>
   </sheetData>
@@ -777,7 +921,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -825,25 +969,32 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>7.1999999999999995E-2</v>
+        <f>1/AVL!$C2</f>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="C2">
-        <v>7.1999999999999995E-2</v>
+        <f>1/AVL!$C2</f>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="D2">
-        <v>7.1999999999999995E-2</v>
+        <f>1/AVL!$C2</f>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="E2">
-        <v>7.1999999999999995E-2</v>
+        <f>1/AVL!$C2</f>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="F2">
-        <v>7.1999999999999995E-2</v>
+        <f>1/AVL!$C2</f>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="G2">
-        <v>7.1999999999999995E-2</v>
+        <f>1/AVL!$C2</f>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="H2">
-        <v>7.1999999999999995E-2</v>
+        <f>1/AVL!$C2</f>
+        <v>7.1428571428571425E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -851,25 +1002,25 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.5499999999999997E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="C3">
-        <v>3.5499999999999997E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D3">
-        <v>3.5499999999999997E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E3">
-        <v>3.5499999999999997E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="F3">
-        <v>3.5499999999999997E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="G3">
-        <v>3.5499999999999997E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="H3">
-        <v>3.5499999999999997E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -877,25 +1028,32 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>4.2000000000000003E-2</v>
+        <f>1/AVL!$C4</f>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C4">
-        <v>4.2000000000000003E-2</v>
+        <f>1/AVL!$C4</f>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D4">
-        <v>4.2000000000000003E-2</v>
+        <f>1/AVL!$C4</f>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="E4">
-        <v>4.2000000000000003E-2</v>
+        <f>1/AVL!$C4</f>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="F4">
-        <v>4.2000000000000003E-2</v>
+        <f>1/AVL!$C4</f>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="G4">
-        <v>4.2000000000000003E-2</v>
+        <f>1/AVL!$C4</f>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="H4">
-        <v>4.2000000000000003E-2</v>
+        <f>1/AVL!$C4</f>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -903,25 +1061,32 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>2.9000000000000001E-2</v>
+        <f>1/AVL!$C5</f>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="C5">
-        <v>2.9000000000000001E-2</v>
+        <f>1/AVL!$C5</f>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="D5">
-        <v>2.9000000000000001E-2</v>
+        <f>1/AVL!$C5</f>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="E5">
-        <v>2.9000000000000001E-2</v>
+        <f>1/AVL!$C5</f>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="F5">
-        <v>2.9000000000000001E-2</v>
+        <f>1/AVL!$C5</f>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="G5">
-        <v>2.9000000000000001E-2</v>
+        <f>1/AVL!$C5</f>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="H5">
-        <v>2.9000000000000001E-2</v>
+        <f>1/AVL!$C5</f>
+        <v>2.9411764705882353E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -929,25 +1094,32 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>3.0300000000000001E-2</v>
+        <f>1/AVL!$C6</f>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="C6">
-        <v>3.0300000000000001E-2</v>
+        <f>1/AVL!$C6</f>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="D6">
-        <v>3.0300000000000001E-2</v>
+        <f>1/AVL!$C6</f>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="E6">
-        <v>3.0300000000000001E-2</v>
+        <f>1/AVL!$C6</f>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="F6">
-        <v>3.0300000000000001E-2</v>
+        <f>1/AVL!$C6</f>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="G6">
-        <v>3.0300000000000001E-2</v>
+        <f>1/AVL!$C6</f>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="H6">
-        <v>3.0300000000000001E-2</v>
+        <f>1/AVL!$C6</f>
+        <v>3.0303030303030304E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -955,32 +1127,25 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <f>B3</f>
-        <v>3.5499999999999997E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:H7" si="0">C3</f>
-        <v>3.5499999999999997E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>3.5499999999999997E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>3.5499999999999997E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>3.5499999999999997E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>3.5499999999999997E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
-        <v>3.5499999999999997E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
   </sheetData>
